--- a/Для сайта/ЭТО/frame.xlsx
+++ b/Для сайта/ЭТО/frame.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\ЭТО\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4B2FE-7DCB-496D-B5DC-589D3FA247D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -78,25 +79,25 @@
     <t>Принципильная схема</t>
   </si>
   <si>
-    <t>05.25</t>
-  </si>
-  <si>
     <t>Строительство водогрейной котельной 400Гкал/час на территории Ивановской ТЭЦ-2</t>
   </si>
   <si>
     <t>РФ, Ивановская область, г.Иваново, ул. Суворова, 76</t>
   </si>
   <si>
-    <t>878.2023-АСУ ТП.ТЗ1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>260</t>
+  </si>
+  <si>
+    <t>878.2023-АСУ ТП.СБ.1</t>
+  </si>
+  <si>
+    <t>07.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,16 +514,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -534,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
